--- a/PCB/BOM/Others.xlsx
+++ b/PCB/BOM/Others.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>PCB:</t>
   </si>
@@ -157,6 +157,22 @@
   </si>
   <si>
     <t>C1, C2</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/block-rd-100-0-3-widerstandsdraht-6-93-m-158-m-422450.html</t>
+  </si>
+  <si>
+    <t>Arduino Mega 2560</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/782-A000067</t>
+  </si>
+  <si>
+    <t>RD 100/0,3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block RD 100/0,3 Widerstandsdraht 6.93 Ω/m 158 m
+</t>
   </si>
 </sst>
 </file>
@@ -317,7 +333,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +366,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -716,7 +735,7 @@
   <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -894,23 +913,35 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" ht="60">
       <c r="B10" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="F10" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="G10" s="9"/>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="7"/>
